--- a/downloaded_files/EECS316_Tutorial-35322.xlsx
+++ b/downloaded_files/EECS316_Tutorial-35322.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Fatma Gamal Zeinelabdeen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210375</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ماجد امجد رسمي وديع</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maged Amgad Rasmy Wadi</x:t>
   </x:si>
   <x:si>
     <x:t>1210158</x:t>
@@ -425,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1456,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.664603044</x:v>
+        <x:v>45906.4185215625</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4185215625</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45909.415565625</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.415565625</x:v>
+        <x:v>45909.4150586806</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4150586806</x:v>
+        <x:v>45906.4149623032</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4149623032</x:v>
+        <x:v>45906.6644841782</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6644841782</x:v>
+        <x:v>45906.6642044329</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1735,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6642044329</x:v>
+        <x:v>45906.664653125</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1761,38 +1752,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45906.664653125</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS316_Tutorial-35322.xlsx
+++ b/downloaded_files/EECS316_Tutorial-35322.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,15 +220,6 @@
   </x:si>
   <x:si>
     <x:t>Mario Emad Saleh Fouad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد اشرف محمد ممدوح ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Ashraf Mohamed Mamdouh Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1210356</x:t>
@@ -416,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1479,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45909.415565625</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.415565625</x:v>
+        <x:v>45909.4150586806</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4150586806</x:v>
+        <x:v>45906.4149623032</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4149623032</x:v>
+        <x:v>45906.6644841782</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6644841782</x:v>
+        <x:v>45906.6642044329</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1694,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6642044329</x:v>
+        <x:v>45906.664653125</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1720,38 +1711,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45906.664653125</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS316_Tutorial-35322.xlsx
+++ b/downloaded_files/EECS316_Tutorial-35322.xlsx
@@ -78,15 +78,6 @@
     <x:t>Raghad Waleed Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد هشام فهمي محمد سليمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Hesham Fahmy Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210243</x:t>
   </x:si>
   <x:si>
@@ -184,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Gamal Sani Ellethy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1161335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عصام الدين عبدالرؤوف محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Essam El Din Abdel Raouf</x:t>
   </x:si>
   <x:si>
     <x:t>1220071</x:t>
@@ -958,7 +958,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4141704051</x:v>
+        <x:v>45906.6646827199</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -990,7 +990,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6646827199</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1022,7 +1022,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45906.4159910532</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1054,7 +1054,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4159910532</x:v>
+        <x:v>45906.6646272801</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1086,7 +1086,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6646272801</x:v>
+        <x:v>45909.4476933681</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1118,7 +1118,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4476933681</x:v>
+        <x:v>45909.4155731134</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1150,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4155731134</x:v>
+        <x:v>45909.9132471412</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1182,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.9132471412</x:v>
+        <x:v>45906.4146170486</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1214,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4146170486</x:v>
+        <x:v>45906.4145680208</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4145680208</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45906.6644042014</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6644042014</x:v>
+        <x:v>45927.5931608796</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>

--- a/downloaded_files/EECS316_Tutorial-35322.xlsx
+++ b/downloaded_files/EECS316_Tutorial-35322.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,15 +105,6 @@
     <x:t>Doha Abdel Fattah Mohamed Yosry ELBeltagy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عائشة توفيق محمود توفيق عصمت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aisha Tawfik Mahmoud Tawfik Esmat</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220062</x:t>
   </x:si>
   <x:si>
@@ -204,15 +195,6 @@
     <x:t>Fady Samy Nabil</x:t>
   </x:si>
   <x:si>
-    <x:t>1210275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فاطمه جمال زين العابدين محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fatma Gamal Zeinelabdeen</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210158</x:t>
   </x:si>
   <x:si>
@@ -256,15 +238,6 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Ahmed Abdelfatah Elkorashy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210312</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهاب ياسر السيد سالم البحراوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohab Yasser Alsayed Salem Albahrawy</x:t>
   </x:si>
   <x:si>
     <x:t>1210381</x:t>
@@ -407,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1054,7 +1027,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6646272801</x:v>
+        <x:v>45909.4476933681</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1086,7 +1059,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4476933681</x:v>
+        <x:v>45909.4155731134</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1118,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4155731134</x:v>
+        <x:v>45909.9132471412</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1150,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.9132471412</x:v>
+        <x:v>45906.4146170486</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1182,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4146170486</x:v>
+        <x:v>45906.4145680208</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1214,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4145680208</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45906.6644042014</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6644042014</x:v>
+        <x:v>45927.5931608796</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.5931608796</x:v>
+        <x:v>45909.5362857292</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.5362857292</x:v>
+        <x:v>45906.6646315972</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6646315972</x:v>
+        <x:v>45906.4185215625</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.7934142361</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4185215625</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45909.415565625</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45909.4150586806</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.415565625</x:v>
+        <x:v>45906.6644841782</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4150586806</x:v>
+        <x:v>45906.6642044329</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1571,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4149623032</x:v>
+        <x:v>45906.664653125</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1615,102 +1588,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45906.6644841782</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45906.6642044329</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45906.664653125</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS316_Tutorial-35322.xlsx
+++ b/downloaded_files/EECS316_Tutorial-35322.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,15 +49,6 @@
   </x:si>
   <x:si>
     <x:t>Galal Mohamed Galal Abdelhamid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جنى أحمد مصطفى أحمد مريدن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jana Ahmed Mostafa Ahmed Meriden</x:t>
   </x:si>
   <x:si>
     <x:t>1210005</x:t>
@@ -380,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -835,7 +826,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6643595718</x:v>
+        <x:v>45906.4141525463</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -867,7 +858,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4141525463</x:v>
+        <x:v>45912.7877232639</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -899,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.7877232639</x:v>
+        <x:v>45906.6646827199</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -931,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6646827199</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -963,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45906.4159910532</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -995,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4159910532</x:v>
+        <x:v>45909.4476933681</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1027,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4476933681</x:v>
+        <x:v>45909.4155731134</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1059,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4155731134</x:v>
+        <x:v>45909.9132471412</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1091,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.9132471412</x:v>
+        <x:v>45906.4146170486</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1123,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4146170486</x:v>
+        <x:v>45906.4145680208</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4145680208</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45906.6644042014</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6644042014</x:v>
+        <x:v>45927.5931608796</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.5931608796</x:v>
+        <x:v>45909.5362857292</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.5362857292</x:v>
+        <x:v>45906.6646315972</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6646315972</x:v>
+        <x:v>45906.4185215625</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4185215625</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45909.415565625</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.415565625</x:v>
+        <x:v>45909.4150586806</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4150586806</x:v>
+        <x:v>45906.6644841782</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6644841782</x:v>
+        <x:v>45906.6642044329</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6642044329</x:v>
+        <x:v>45906.664653125</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1556,38 +1547,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45906.664653125</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS316_Tutorial-35322.xlsx
+++ b/downloaded_files/EECS316_Tutorial-35322.xlsx
@@ -102,7 +102,7 @@
     <x:t>عبد الرحمن على السيد محمد السيد الحديدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Ali ElSayed Mohamed</x:t>
+    <x:t>Abdul Rahman Ali Elsayed Muhammad Elsayed Alhadidi</x:t>
   </x:si>
   <x:si>
     <x:t>1220126</x:t>
